--- a/output7.xlsx
+++ b/output7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F247"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,14 +479,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identification and management of conflicts of interest (SYSC 10.1 (Conflicts of interest)); </t>
+          <t>1This chapter does not affect the application of other requirements in the FCA Handbook applying to funeral plan providers or firms in relation to funeral plan distributions, including but not limited to:</t>
         </is>
       </c>
     </row>
@@ -511,12 +507,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Funeral plan remuneration incentives (SYSC 19F.3 (Funeral plan remuneration incentives));</t>
+          <t>Identification and management of conflicts of interest (SYSC 10.1 (Conflicts of interest));</t>
         </is>
       </c>
     </row>
@@ -541,12 +537,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Structure arrangements (FPCOB 3 (Structure provisions- arrangements underpinning a funeral plan contract));</t>
+          <t>Funeral plan remuneration incentives (SYSC 19F.3 (Funeral plan remuneration incentives));</t>
         </is>
       </c>
     </row>
@@ -571,12 +567,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Disclosure (FPCOB 6 (Information about the firm and its services) and FPCOB 9 (Product information)); </t>
+          <t>Structure arrangements (FPCOB 3 (Structure provisions- arrangements underpinning a funeral plan contract));</t>
         </is>
       </c>
     </row>
@@ -601,12 +597,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Remuneration (FPCOB 6.4 (Charging for funeral plan distribution) and FPCOB 6.5 (Payments to funeral plan intermediaries)).</t>
+          <t>Disclosure (FPCOB 6 (Information about the firm and its services) and FPCOB 9 (Product information));</t>
         </is>
       </c>
     </row>
@@ -616,12 +612,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROD 7.2.1</t>
+          <t>PROD 7.1.1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -631,12 +627,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>a funeral plan product; and</t>
+          <t>Remuneration (FPCOB 6.4 (Charging for funeral plan distribution) and FPCOB 6.5 (Payments to funeral plan intermediaries)).</t>
         </is>
       </c>
     </row>
@@ -659,14 +655,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>any significant adaptation of an existing funeral plan product,</t>
+          <t>1A manufacturer must maintain, operate and review a process for the approval of:</t>
         </is>
       </c>
     </row>
@@ -676,12 +668,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PROD 7.2.2</t>
+          <t>PROD 7.2.1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -691,12 +683,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1PROD 7.2.1R(1) includes any funeral plan product whether a new product manufactured on or after 29 July 2022 or any existing funeral plan product. In relation to an existing funeral plan product, references in PROD 7.2 and 7.3 to ‘marketing’ or ‘distributing’ includes reference to any future activity regardless of whether the product has previously been made available for marketing or distribution.</t>
+          <t>a funeral plan product; and</t>
         </is>
       </c>
     </row>
@@ -706,12 +698,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROD 7.2.2</t>
+          <t>PROD 7.2.1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -721,12 +713,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>For the purposes of PROD 7.2.1R(2)2:</t>
+          <t>any significant adaptation of an existing funeral plan product,</t>
         </is>
       </c>
     </row>
@@ -736,12 +728,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROD 7.2.2</t>
+          <t>PROD 7.2.1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -749,14 +741,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>whether a proposed change to the product would be a ‘significant adaptation’ should include consideration of the potential impact that the adaptation may have on an existing or potential customer (when compared to the unadapted version of the product);</t>
+          <t>in each case before it is marketed or distributed to customers.</t>
         </is>
       </c>
     </row>
@@ -781,12 +769,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>a ‘significant adaptation’ in relation to a funeral plan product may include, but is not restricted to, a proposed change to the undertaking to provide funeral arrangements, services added or removed, level of monetary benefits (other than adjustments for inflation or other cost variations) costs, and any other significant change to the terms and conditions.</t>
+          <t>1PROD 7.2.1R(1) includes any funeral plan product whether a new product manufactured on or after 29 July 2022 or any existing funeral plan product. In relation to an existing funeral plan product, references in PROD 7.2 and 7.3 to ‘marketing’ or ‘distributing’ includes reference to any future activity regardless of whether the product has previously been made available for marketing or distribution.</t>
         </is>
       </c>
     </row>
@@ -796,12 +784,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROD 7.2.3</t>
+          <t>PROD 7.2.2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -809,10 +797,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1The product approval process in PROD 7.2.1R must be proportionate and appropriate to the nature of the funeral plan product.</t>
+          <t>For the purposes of PROD 7.2.1R(2)2:</t>
         </is>
       </c>
     </row>
@@ -822,7 +814,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROD 7.2.4</t>
+          <t>PROD 7.2.2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -837,12 +829,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>the complexity of the funeral plan product;</t>
+          <t>whether a proposed change to the product would be a ‘significant adaptation’ should include consideration of the potential impact that the adaptation may have on an existing or potential customer (when compared to the unadapted version of the product);</t>
         </is>
       </c>
     </row>
@@ -852,7 +844,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROD 7.2.4</t>
+          <t>PROD 7.2.2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -867,12 +859,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>the degree to which publicly available information can be obtained;</t>
+          <t>a ‘significant adaptation’ in relation to a funeral plan product may include, but is not restricted to, a proposed change to the undertaking to provide funeral arrangements, services added or removed, level of monetary benefits (other than adjustments for inflation or other cost variations) costs, and any other significant change to the terms and conditions.</t>
         </is>
       </c>
     </row>
@@ -882,12 +874,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROD 7.2.4</t>
+          <t>PROD 7.2.3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -895,14 +887,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>the nature of the funeral plan product and the risk of consumer detriment related to it;</t>
+          <t>1The product approval process in PROD 7.2.1R must be proportionate and appropriate to the nature of the funeral plan product.</t>
         </is>
       </c>
     </row>
@@ -925,14 +913,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">the characteristics of the target market; </t>
+          <t>1A manufacturer should take into account the following when considering whether the product approval process is proportionate and appropriate:</t>
         </is>
       </c>
     </row>
@@ -957,12 +941,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>the scale and complexity of the relevant business of the manufacturer or distributor;</t>
+          <t>the complexity of the funeral plan product;</t>
         </is>
       </c>
     </row>
@@ -987,12 +971,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>the potential risk, and possible levels, of harm to customers if the product design is flawed, in particular, due to the potential scale of harm if the product is intended for a wide target market;</t>
+          <t>the degree to which publicly available information can be obtained;</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1001,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">(7) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>the nature of the cover that the product is intended to provide;</t>
+          <t>the nature of the funeral plan product and the risk of consumer detriment related to it;</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1031,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">(8) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>whether the distribution arrangements could mean customers are at a greater risk of not receiving fair value from the product;</t>
+          <t>the characteristics of the target market;</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1061,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">(9) </t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>any particularly notable features of, or relating to, existing products (including how it has been distributed); and</t>
+          <t>the scale and complexity of the relevant business of the manufacturer or distributor;</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1091,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">(10) </t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>the nature and complexity of the firm’s existing or intended customer base, for example whether it includes or is likely to include:</t>
+          <t>the potential risk, and possible levels, of harm to customers if the product design is flawed, in particular, due to the potential scale of harm if the product is intended for a wide target market;</t>
         </is>
       </c>
     </row>
@@ -1137,12 +1121,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>different types of customers with varying characteristics including in relation to their understanding of financial matters; and</t>
+          <t>the nature of the cover that the product is intended to provide;</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1151,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>a significant number of vulnerable customers.</t>
+          <t>whether the distribution arrangements could mean customers are at a greater risk of not receiving fair value from the product;</t>
         </is>
       </c>
     </row>
@@ -1182,12 +1166,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROD 7.2.5</t>
+          <t>PROD 7.2.4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1197,12 +1181,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ensures the design of a funeral plan product:</t>
+          <t>any particularly notable features of, or relating to, existing products (including how it has been distributed); and</t>
         </is>
       </c>
     </row>
@@ -1212,12 +1196,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROD 7.2.5</t>
+          <t>PROD 7.2.4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1227,12 +1211,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>identifies how funeral arrangements will be provided;</t>
+          <t>the nature and complexity of the firm’s existing or intended customer base, for example whether it includes or is likely to include:</t>
         </is>
       </c>
     </row>
@@ -1242,12 +1226,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROD 7.2.5</t>
+          <t>PROD 7.2.4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1257,12 +1241,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>delivers fair value;</t>
+          <t>different types of customers with varying characteristics including in relation to their understanding of financial matters; and</t>
         </is>
       </c>
     </row>
@@ -1272,12 +1256,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROD 7.2.5</t>
+          <t>PROD 7.2.4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1287,12 +1271,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>takes into account the intended customers including their objectives, interests, needs and characteristics;</t>
+          <t>a significant number of vulnerable customers.</t>
         </is>
       </c>
     </row>
@@ -1315,14 +1299,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(d) </t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>does not adversely affect customers; and</t>
+          <t>1A manufacturer must have a product approval process that:</t>
         </is>
       </c>
     </row>
@@ -1347,12 +1327,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">(e) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>is driven by features that benefit the customer and not by a business model which relies on poor customer outcomes to be profitable;</t>
+          <t>ensures the design of a funeral plan product:</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1357,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>prevents or mitigates customer detriment; and</t>
+          <t>identifies how funeral arrangements will be provided;</t>
         </is>
       </c>
     </row>
@@ -1407,12 +1387,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>supports a proper management of conflicts of interest.</t>
+          <t>delivers fair value;</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1402,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROD 7.2.6 </t>
+          <t>PROD 7.2.5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1437,12 +1417,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>the design, distribution, monitoring and review of a funeral plan product;</t>
+          <t>takes into account the intended customers including their objectives, interests, needs and characteristics;</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1432,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROD 7.2.6 </t>
+          <t>PROD 7.2.5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1467,12 +1447,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(d)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>identifying whether the product is, or remains, appropriate to be marketed or distributed to customers; and</t>
+          <t>does not adversely affect customers; and</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1462,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROD 7.2.6 </t>
+          <t>PROD 7.2.5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1497,12 +1477,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(e)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>taking corrective and/or mitigating action for funeral plan products where actual or potential customer detriment is identified.</t>
+          <t>is driven by features that benefit the customer and not by a business model which relies on poor customer outcomes to be profitable;</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1492,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROD 7.2.7</t>
+          <t>PROD 7.2.5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1525,10 +1505,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1A manufacturer must set out the product approval process in a written document (“product oversight and governance policy”), which is made available to the relevant staff.</t>
+          <t>prevents or mitigates customer detriment; and</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1522,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROD 7.2.8</t>
+          <t>PROD 7.2.5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1551,10 +1535,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1A manufacturer must make and retain a record of any relevant actions taken in relation to the product approval process. The record must be made available to the FCA upon request.</t>
+          <t>supports a proper management of conflicts of interest.</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1552,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROD 7.2.9</t>
+          <t xml:space="preserve">PROD 7.2.6 </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1577,14 +1565,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>endorse and be responsible for establishing, implementing and reviewing the product approval process; and</t>
+          <t>1The product approval process must contain appropriate measures and procedures for:</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1578,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROD 7.2.9</t>
+          <t xml:space="preserve">PROD 7.2.6 </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1609,12 +1593,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>verify internal compliance with that process on an ongoing basis.</t>
+          <t>the design, distribution, monitoring and review of a funeral plan product;</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1608,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROD 7.2.10</t>
+          <t xml:space="preserve">PROD 7.2.6 </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1637,10 +1621,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1A manufacturer must ensure that any of its staff involved in the manufacture of a funeral plan product has the necessary skills, knowledge and expertise to properly carry out this role and, in particular, to understand the funeral plan product and the interests, objectives and characteristics of the customers belonging to the target market. (Also see SYSC 5.1.1R (competent employee rule)).</t>
+          <t>identifying whether the product is, or remains, appropriate to be marketed or distributed to customers; and</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROD 7.2.11</t>
+          <t xml:space="preserve">PROD 7.2.6 </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1663,10 +1651,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1Where a manufacturer uses a third party to undertake any part of the manufacture of the funeral plan product on its behalf, the manufacturer remains fully responsible for compliance with the product approval process.</t>
+          <t>taking corrective and/or mitigating action for funeral plan products where actual or potential customer detriment is identified.</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1668,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROD 7.2.12</t>
+          <t>PROD 7.2.7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1689,14 +1681,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1A manufacturer must regularly review its product approval process to ensure that the process is still appropriate and up to date.</t>
+          <t>1A manufacturer must set out the product approval process in a written document (“product oversight and governance policy”), which is made available to the relevant staff.</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1694,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROD 7.2.12</t>
+          <t>PROD 7.2.8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1719,14 +1707,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Where the process is identified to no longer be appropriate, the manufacturer must:</t>
+          <t>1A manufacturer must make and retain a record of any relevant actions taken in relation to the product approval process. The record must be made available to the FCA upon request.</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1720,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROD 7.2.12</t>
+          <t>PROD 7.2.9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1749,14 +1733,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">amend the product approval process; </t>
+          <t>1A manufacturer’s governing body must:</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1746,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROD 7.2.12</t>
+          <t>PROD 7.2.9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1781,12 +1761,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>review any product approved since the approval process was last deemed to be appropriate to:</t>
+          <t>endorse and be responsible for establishing, implementing and reviewing the product approval process; and</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1776,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROD 7.2.12</t>
+          <t>PROD 7.2.9</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1811,12 +1791,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">(i) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ensure these products were correctly approved for marketing and/or distribution; and</t>
+          <t>verify internal compliance with that process on an ongoing basis.</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1806,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROD 7.2.12</t>
+          <t>PROD 7.2.10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1839,14 +1819,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(ii) </t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>take all necessary steps for the mitigation and remediation of any actual or potential harm to customers.</t>
+          <t>1A manufacturer must ensure that any of its staff involved in the manufacture of a funeral plan product has the necessary skills, knowledge and expertise to properly carry out this role and, in particular, to understand the funeral plan product and the interests, objectives and characteristics of the customers belonging to the target market. (Also see SYSC 5.1.1R (competent employee rule)).</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1832,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROD 7.2.13</t>
+          <t>PROD 7.2.11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1869,14 +1845,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1Where two or more firms collaborate to manufacture a funeral plan product, the firms must outline their mutual responsibilities in a signed written agreement.</t>
+          <t>1Where a manufacturer uses a third party to undertake any part of the manufacture of the funeral plan product on its behalf, the manufacturer remains fully responsible for compliance with the product approval process.</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1858,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROD 7.2.13</t>
+          <t>PROD 7.2.12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1901,12 +1873,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>The written agreement in (1) must specify:</t>
+          <t>1A manufacturer must regularly review its product approval process to ensure that the process is still appropriate and up to date.</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1888,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROD 7.2.13</t>
+          <t>PROD 7.2.12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1931,12 +1903,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>their respective roles in the product approval process; and</t>
+          <t>Where the process is identified to no longer be appropriate, the manufacturer must:</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1918,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROD 7.2.13</t>
+          <t>PROD 7.2.12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1961,12 +1933,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>how they will collaborate to comply with the requirements in PROD 7.2 (Manufacture of funeral plans), including the procedures through which they will agree on the identification of the target market.</t>
+          <t>amend the product approval process;</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1948,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROD 7.2.14</t>
+          <t>PROD 7.2.12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1989,10 +1961,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1A manufacturer must only approve a funeral plan product where it provides fair value to customers in the target market.</t>
+          <t>review any product approved since the approval process was last deemed to be appropriate to:</t>
         </is>
       </c>
     </row>
@@ -2002,7 +1978,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROD 7.2.15</t>
+          <t>PROD 7.2.12</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2017,12 +1993,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(i)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1A manufacturer must:</t>
+          <t>ensure these products were correctly approved for marketing and/or distribution; and</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2008,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROD 7.2.15</t>
+          <t>PROD 7.2.12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2047,12 +2023,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(ii)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>be able to clearly demonstrate how any funeral plan product provides fair value; and</t>
+          <t>take all necessary steps for the mitigation and remediation of any actual or potential harm to customers.</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2038,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROD 7.2.15</t>
+          <t>PROD 7.2.13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2075,16 +2051,8 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>make and retain a record of the value assessment required by PROD 7.2.14R.</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2092,7 +2060,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROD 7.2.15</t>
+          <t>PROD 7.2.13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2107,12 +2075,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Where a manufacturer is unable to both:</t>
+          <t>1Where two or more firms collaborate to manufacture a funeral plan product, the firms must outline their mutual responsibilities in a signed written agreement.</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2090,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROD 7.2.15</t>
+          <t>PROD 7.2.13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2137,12 +2105,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>identify; and</t>
+          <t>The written agreement in (1) must specify:</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2120,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROD 7.2.15</t>
+          <t>PROD 7.2.13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2167,12 +2135,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>clearly demonstrate,</t>
+          <t>their respective roles in the product approval process; and</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2150,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROD 7.2.15</t>
+          <t>PROD 7.2.13</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2197,12 +2165,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>(a) identify; and(b) clearly demonstrate,</t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">that the funeral plan product will provide fair value, the manufacturer must not: </t>
+          <t>how they will collaborate to comply with the requirements in PROD 7.2 (Manufacture of funeral plans), including the procedures through which they will agree on the identification of the target market.</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2180,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROD 7.2.15</t>
+          <t>PROD 7.2.14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2225,14 +2193,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(c) </t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">market the funeral plan product; or </t>
+          <t>1A manufacturer must only approve a funeral plan product where it provides fair value to customers in the target market.</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2221,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">(d) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>permit the funeral plan product to be distributed (whether directly or through another person),</t>
+          <t>1A manufacturer must:</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2251,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>(c) market the funeral plan product; or (d) permit the funeral plan product to be distributed (whether directly or through another person),</t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>unless the manufacturer has ensured appropriate changes have been made so that fair value will be provided.</t>
+          <t>be able to clearly demonstrate how any funeral plan product provides fair value; and</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2266,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROD 7.2.16</t>
+          <t>PROD 7.2.15</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2317,12 +2281,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>the nature of the product, including the benefits that will be provided, their quality, and any limitations (for example, in the scope of the funeral arrangements or other features);</t>
+          <t>make and retain a record of the value assessment required by PROD 7.2.14R.</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2296,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROD 7.2.16</t>
+          <t>PROD 7.2.15</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2347,12 +2311,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>the type and quality of services provided to customers;</t>
+          <t>Where a manufacturer is unable to both:</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2326,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROD 7.2.16</t>
+          <t>PROD 7.2.15</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2377,12 +2341,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>the expected total price to be paid by the customer when buying the funeral plan product, and the elements that make up the total price. This will need to include consideration of at least the following:</t>
+          <t>identify; and</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2356,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROD 7.2.16</t>
+          <t>PROD 7.2.15</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2407,12 +2371,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>the overall cost to the manufacturer of the funeral plan product of:</t>
+          <t>clearly demonstrate,</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2386,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROD 7.2.16</t>
+          <t>PROD 7.2.15</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2437,12 +2401,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">(i) </t>
+          <t>(a) identify; and(b) clearly demonstrate,</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">operating the product, including the costs of the trust or premiums paid towards an insurance  policy to meet the requirements in FPCOB 3 (Structure provisions - arrangements underpinning a funeral plan contract); and </t>
+          <t>that the funeral plan product will provide fair value, the manufacturer must not:</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2416,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROD 7.2.16</t>
+          <t>PROD 7.2.15</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2467,12 +2431,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ii) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>the delivery of funeral benefits under it; and</t>
+          <t>market the funeral plan product; or</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2446,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROD 7.2.16</t>
+          <t>PROD 7.2.15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2497,12 +2461,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(d)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>the individual elements of the expected total price to be paid by the customer including, but not limited to:</t>
+          <t>permit the funeral plan product to be distributed (whether directly or through another person),</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2476,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROD 7.2.16</t>
+          <t>PROD 7.2.15</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2527,12 +2491,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">(i) </t>
+          <t>(c) market the funeral plan product; or (d) permit the funeral plan product to be distributed (whether directly or through another person),</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">the funeral plan product; </t>
+          <t>unless the manufacturer has ensured appropriate changes have been made so that fair value will be provided.</t>
         </is>
       </c>
     </row>
@@ -2555,14 +2519,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(ii) </t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>the costs of the distribution arrangements, including the remuneration of any relevant person in the distribution arrangements, and including where a manufacturer delegates the final decision on setting the price to another person; and</t>
+          <t>1In PROD 7 “value” means the relationship between the total price to the customer and the quality of the product(s) and/or services provided. The assessment of value must include consideration of at least the following:</t>
         </is>
       </c>
     </row>
@@ -2587,12 +2547,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>how the intended distribution arrangements support, and will not adversely affect, the intended value of the product.</t>
+          <t>the nature of the product, including the benefits that will be provided, their quality, and any limitations (for example, in the scope of the funeral arrangements or other features);</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2562,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROD 7.2.17</t>
+          <t>PROD 7.2.16</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2615,10 +2575,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1A manufacturer must not rely on individual customers to consider whether they are making fair value purchases in place of any part of the manufacturer’s own assessment.</t>
+          <t>the type and quality of services provided to customers;</t>
         </is>
       </c>
     </row>
@@ -2628,12 +2592,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROD 7.2.18</t>
+          <t>PROD 7.2.16</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2641,10 +2605,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1The following evidential provision provides examples of arrangements that the FCA considers will breach PROD 7.2.14R.</t>
+          <t>the expected total price to be paid by the customer when buying the funeral plan product, and the elements that make up the total price. This will need to include consideration of at least the following:</t>
         </is>
       </c>
     </row>
@@ -2654,12 +2622,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROD 7.2.19</t>
+          <t>PROD 7.2.16</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2669,12 +2637,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">1A manufacturer should not have a funeral plan product where: </t>
+          <t>the overall cost to the manufacturer of the funeral plan product of:</t>
         </is>
       </c>
     </row>
@@ -2684,12 +2652,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROD 7.2.19</t>
+          <t>PROD 7.2.16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2699,12 +2667,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(i)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>the difference between the cost of delivering the funeral plan contract obligations to the manufacturer and the total price paid by the customer bears no reasonable relationship to:</t>
+          <t>operating the product, including the costs of the trust or premiums paid towards an insurance  policy to meet the requirements in FPCOB 3 (Structure provisions - arrangements underpinning a funeral plan contract); and</t>
         </is>
       </c>
     </row>
@@ -2714,12 +2682,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROD 7.2.19</t>
+          <t>PROD 7.2.16</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2729,12 +2697,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">(i) </t>
+          <t>(ii)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>the actual costs incurred by the manufacturer or any other person involved in the distribution arrangements;</t>
+          <t>the delivery of funeral benefits under it; and</t>
         </is>
       </c>
     </row>
@@ -2744,12 +2712,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROD 7.2.19</t>
+          <t>PROD 7.2.16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2759,12 +2727,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ii) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>the quality of any benefits (including of the funeral plan product); or</t>
+          <t>the individual elements of the expected total price to be paid by the customer including, but not limited to:</t>
         </is>
       </c>
     </row>
@@ -2774,12 +2742,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROD 7.2.19</t>
+          <t>PROD 7.2.16</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2789,12 +2757,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(i)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>any difference between the cost of the funeral arrangements under the funeral plan product and the cost of the equivalent funeral arrangements purchased without a funeral plan contract does not have an objective and reasonable basis.</t>
+          <t>the funeral plan product;</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2772,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROD 7.2.19</t>
+          <t>PROD 7.2.16</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2819,12 +2787,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(ii)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Contravention of any of (1) may be relied on as tending to establish contravention of PROD 7.2.14R.</t>
+          <t>the costs of the distribution arrangements, including the remuneration of any relevant person in the distribution arrangements, and including where a manufacturer delegates the final decision on setting the price to another person; and</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2802,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROD 7.2.20</t>
+          <t>PROD 7.2.16</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2849,12 +2817,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>information available to the manufacturer internally including:</t>
+          <t>how the intended distribution arrangements support, and will not adversely affect, the intended value of the product.</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2832,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROD 7.2.20</t>
+          <t>PROD 7.2.17</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2877,14 +2845,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>customer research;</t>
+          <t>1A manufacturer must not rely on individual customers to consider whether they are making fair value purchases in place of any part of the manufacturer’s own assessment.</t>
         </is>
       </c>
     </row>
@@ -2894,12 +2858,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROD 7.2.20</t>
+          <t>PROD 7.2.18</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2907,14 +2871,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">the performance of the funeral plan product or other funeral plan products of the manufacturer, including for example: </t>
+          <t>1The following evidential provision provides examples of arrangements that the FCA considers will breach PROD 7.2.14R.</t>
         </is>
       </c>
     </row>
@@ -2924,12 +2884,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROD 7.2.20</t>
+          <t>PROD 7.2.19</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2939,12 +2899,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">(i) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">how the estimated costs of funerals compare to actual costs; </t>
+          <t>1A manufacturer should not have a funeral plan product where:</t>
         </is>
       </c>
     </row>
@@ -2954,12 +2914,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROD 7.2.20</t>
+          <t>PROD 7.2.19</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2969,12 +2929,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ii) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">number of customers cancelling the funeral plan contracts; </t>
+          <t>the difference between the cost of delivering the funeral plan contract obligations to the manufacturer and the total price paid by the customer bears no reasonable relationship to:</t>
         </is>
       </c>
     </row>
@@ -2984,12 +2944,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROD 7.2.20</t>
+          <t>PROD 7.2.19</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2999,12 +2959,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">(iii) </t>
+          <t>(i)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>number of missed instalment plan payments by the customer; and</t>
+          <t>the actual costs incurred by the manufacturer or any other person involved in the distribution arrangements;</t>
         </is>
       </c>
     </row>
@@ -3014,12 +2974,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROD 7.2.20</t>
+          <t>PROD 7.2.19</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3029,12 +2989,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">(iv) </t>
+          <t>(ii)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>number of funeral plan contracts expected to be claimed but have not been redeemed;</t>
+          <t>the quality of any benefits (including of the funeral plan product); or</t>
         </is>
       </c>
     </row>
@@ -3044,12 +3004,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROD 7.2.20</t>
+          <t>PROD 7.2.19</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3059,12 +3019,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>complaints data (including root cause analysis and handling times), both expected for the product itself and/or any actual information from a comparable product;</t>
+          <t>any difference between the cost of the funeral arrangements under the funeral plan product and the cost of the equivalent funeral arrangements purchased without a funeral plan contract does not have an objective and reasonable basis.</t>
         </is>
       </c>
     </row>
@@ -3074,12 +3034,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROD 7.2.20</t>
+          <t>PROD 7.2.19</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3089,12 +3049,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>public information or information obtainable by the manufacturer from external sources, including analysis of similar funeral plan products available from other firms; and</t>
+          <t>Contravention of any of (1) may be relied on as tending to establish contravention of PROD 7.2.14R.</t>
         </is>
       </c>
     </row>
@@ -3117,14 +3077,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>information available to the manufacturer specifically from persons in the distribution arrangements or external funeral provider, including:</t>
+          <t>1When assessing whether a product should be approved for the purposes of PROD 7.2.1R, a manufacturer must use the full range of data and information available to it including, but not limited to:</t>
         </is>
       </c>
     </row>
@@ -3149,12 +3105,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>any remuneration and its impact on the value of the product;</t>
+          <t>information available to the manufacturer internally including:</t>
         </is>
       </c>
     </row>
@@ -3179,12 +3135,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>levels or quality of service provided by any person in the distribution arrangements;</t>
+          <t>customer research;</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3165,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>any results of monitoring and oversight of the processes of any persons in the distribution arrangement (for example, call monitoring or file checks), including in relation to other products that person distributes; and</t>
+          <t>the performance of the funeral plan product or other funeral plan products of the manufacturer, including for example:</t>
         </is>
       </c>
     </row>
@@ -3239,12 +3195,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">(d) </t>
+          <t>(i)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>the wholesale and retail prices of a funeral not paid for using a funeral plan contract (whether paid for in advance or after the death of a person).</t>
+          <t>how the estimated costs of funerals compare to actual costs;</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3210,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PROD 7.2.21</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3269,12 +3225,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(ii)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>any funeral plan contracts entered into using that product will have the necessary and robust trust or insurance arrangements required to comply with FPCOB 3 (Structure provisions – arrangements underpinning a funeral plan contract); and</t>
+          <t>number of customers cancelling the funeral plan contracts;</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3240,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PROD 7.2.21</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3299,12 +3255,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(iii)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>at a product level, there is sufficient oversight and management of those trust or insurance arrangements to mitigate the risk of customer harm.</t>
+          <t>number of missed instalment plan payments by the customer; and</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3270,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PROD 7.2.22</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3329,12 +3285,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(iv)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>specifies an identified target market;</t>
+          <t>number of funeral plan contracts expected to be claimed but have not been redeemed;</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3300,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PROD 7.2.22</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3359,12 +3315,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>assesses all relevant risks to the identified target market;</t>
+          <t>complaints data (including root cause analysis and handling times), both expected for the product itself and/or any actual information from a comparable product;</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3330,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PROD 7.2.22</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3389,12 +3345,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>identifies that a funeral plan product offers fair value to the specified target market, taking into account in particular their needs, objectives, interests and characteristics;</t>
+          <t>public information or information obtainable by the manufacturer from external sources, including analysis of similar funeral plan products available from other firms; and</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3360,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PROD 7.2.22</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3419,12 +3375,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>permits only the approval of funeral plan products that are compatible with the needs, characteristics and objectives of the customers belonging to the target market;</t>
+          <t>information available to the manufacturer specifically from persons in the distribution arrangements or external funeral provider, including:</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3390,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PROD 7.2.22</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3449,12 +3405,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>verifies that the intended distribution strategy is consistent with the identified target market; and</t>
+          <t>any remuneration and its impact on the value of the product;</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3420,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PROD 7.2.22</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3479,12 +3435,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>requires reasonable steps are taken to ensure that the funeral plan product is distributed to the identified target market.</t>
+          <t>levels or quality of service provided by any person in the distribution arrangements;</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3450,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PROD 7.2.23</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3507,10 +3463,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>(c)</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1A manufacturer must identify the target market at a sufficiently granular level, taking into account the characteristics, risk profile, complexity and nature of the funeral plan product.</t>
+          <t>any results of monitoring and oversight of the processes of any persons in the distribution arrangement (for example, call monitoring or file checks), including in relation to other products that person distributes; and</t>
         </is>
       </c>
     </row>
@@ -3520,7 +3480,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PROD 7.2.24</t>
+          <t>PROD 7.2.20</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3533,10 +3493,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>(d)</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1A manufacturer must identify groups of customers for whose needs, characteristics and objectives the funeral plan product is generally not compatible.</t>
+          <t>the wholesale and retail prices of a funeral not paid for using a funeral plan contract (whether paid for in advance or after the death of a person).</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3510,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PROD 7.2.25</t>
+          <t>PROD 7.2.21</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3559,14 +3523,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>the level of information available to the customers belonging to that target market and their financial literacy; and</t>
+          <t>1A manufacturer must only approve a funeral plan product where it has established adequate processes and procedures to ensure:</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3536,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PROD 7.2.25</t>
+          <t>PROD 7.2.21</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3591,12 +3551,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve">vulnerable customers. </t>
+          <t>any funeral plan contracts entered into using that product will have the necessary and robust trust or insurance arrangements required to comply with FPCOB 3 (Structure provisions – arrangements underpinning a funeral plan contract); and</t>
         </is>
       </c>
     </row>
@@ -3606,12 +3566,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PROD 7.2.26</t>
+          <t>PROD 7.2.21</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3621,12 +3581,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1The identification of the target market should describe a group of customers sharing common characteristics at an abstract and generalised level in order to enable the manufacturer to adapt the features of the product to the needs, characteristics and objectives of that group of customers.</t>
+          <t>at a product level, there is sufficient oversight and management of those trust or insurance arrangements to mitigate the risk of customer harm.</t>
         </is>
       </c>
     </row>
@@ -3636,12 +3596,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PROD 7.2.26</t>
+          <t>PROD 7.2.22</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3649,14 +3609,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>The identification of the target market should be distinguished from the individual assessment at the point of sale to determine whether a product meets the demands and needs of the individual customer.</t>
+          <t>1A manufacturer must ensure that for each funeral plan product the product approval process:</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3622,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PROD 7.2.27</t>
+          <t>PROD 7.2.22</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3681,12 +3637,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1A manufacturer must test a funeral plan product appropriately, including scenario analyses, in a qualitative manner and quantitative manner.</t>
+          <t>specifies an identified target market;</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PROD 7.2.27</t>
+          <t>PROD 7.2.22</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3711,12 +3667,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>The product testing in (1) must assess whether the funeral plan product over its lifetime meets the identified needs, objectives and characteristics of the target market.</t>
+          <t>assesses all relevant risks to the identified target market;</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3682,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PROD 7.2.27</t>
+          <t>PROD 7.2.22</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3741,12 +3697,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>The requirement in (1) must be carried out:</t>
+          <t>identifies that a funeral plan product offers fair value to the specified target market, taking into account in particular their needs, objectives, interests and characteristics;</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3712,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PROD 7.2.27</t>
+          <t>PROD 7.2.22</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3771,12 +3727,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve">before approving the product for marketing or distribution; </t>
+          <t>permits only the approval of funeral plan products that are compatible with the needs, characteristics and objectives of the customers belonging to the target market;</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3742,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PROD 7.2.27</t>
+          <t>PROD 7.2.22</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3801,12 +3757,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>when the product is being significantly adapted; and</t>
+          <t>verifies that the intended distribution strategy is consistent with the identified target market; and</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3772,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PROD 7.2.27</t>
+          <t>PROD 7.2.22</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3831,12 +3787,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>where the target market has significantly changed.</t>
+          <t>requires reasonable steps are taken to ensure that the funeral plan product is distributed to the identified target market.</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3802,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PROD 7.2.28</t>
+          <t>PROD 7.2.23</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3862,7 +3818,7 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1A manufacturer must not bring a funeral plan product to the market if the results of the product testing show that the product does not provide fair value including where it would not meet the identified needs, objectives and characteristics of the target market.</t>
+          <t>1A manufacturer must identify the target market at a sufficiently granular level, taking into account the characteristics, risk profile, complexity and nature of the funeral plan product.</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3828,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PROD 7.2.29</t>
+          <t>PROD 7.2.24</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3888,7 +3844,7 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1A manufacturer must carefully select distribution arrangements, including specific distribution channels that are appropriate for the target market, taking into account the particular characteristics of the relevant funeral plan product.</t>
+          <t>1A manufacturer must identify groups of customers for whose needs, characteristics and objectives the funeral plan product is generally not compatible.</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3854,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PROD 7.2.30</t>
+          <t>PROD 7.2.25</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3911,14 +3867,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve">1When selecting any distribution arrangements, including any particular distribution channel, a manufacturer must be able to demonstrate clearly that these arrangements: </t>
+          <t>1When assessing whether a funeral plan product is compatible with a target market, a manufacturer must take into account:</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3880,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PROD 7.2.30</t>
+          <t>PROD 7.2.25</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3943,12 +3895,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve">result in fair value to the customer; </t>
+          <t>the level of information available to the customers belonging to that target market and their financial literacy; and</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3910,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PROD 7.2.30</t>
+          <t>PROD 7.2.25</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3973,12 +3925,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve">are consistent with the requirements in FPCOB 6.4 (charging for funeral plan distribution); and </t>
+          <t>vulnerable customers.</t>
         </is>
       </c>
     </row>
@@ -3988,12 +3940,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PROD 7.2.30</t>
+          <t>PROD 7.2.26</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4003,12 +3955,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve">prevent or mitigate the risk of customer detriment arising from the distribution of the product, for example by verifying that any proposed distributor has the necessary knowledge, expertise and competence; and </t>
+          <t>1The identification of the target market should describe a group of customers sharing common characteristics at an abstract and generalised level in order to enable the manufacturer to adapt the features of the product to the needs, characteristics and objectives of that group of customers.</t>
         </is>
       </c>
     </row>
@@ -4018,12 +3970,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PROD 7.2.30</t>
+          <t>PROD 7.2.26</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4033,12 +3985,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">(d) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>do not pose a significant risk of a distribution channel failing to meet the requirements in FPCOB.</t>
+          <t>The identification of the target market should be distinguished from the individual assessment at the point of sale to determine whether a product meets the demands and needs of the individual customer.</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4000,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PROD 7.2.30</t>
+          <t>PROD 7.2.27</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4063,12 +4015,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>A manufacturer must not use a distribution channel unless it is able to demonstrate the requirements in (1) are met.</t>
+          <t>1A manufacturer must test a funeral plan product appropriately, including scenario analyses, in a qualitative manner and quantitative manner.</t>
         </is>
       </c>
     </row>
@@ -4078,12 +4030,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PROD 7.2.31</t>
+          <t>PROD 7.2.27</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4091,11 +4043,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1
-Manufacturers should only select distributors that have the necessary knowledge, expertise and competence to understand the features of a funeral plan product and the identified target market.</t>
+          <t>The product testing in (1) must assess whether the funeral plan product over its lifetime meets the identified needs, objectives and characteristics of the target market.</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4060,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PROD 7.2.32</t>
+          <t>PROD 7.2.27</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4120,12 +4075,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>obtain all necessary information from the distributor or any other person who will be involved with the distribution arrangement, including that set out in PROD 7.2.35R; and</t>
+          <t>The requirement in (1) must be carried out:</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4090,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PROD 7.2.32</t>
+          <t>PROD 7.2.27</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4150,12 +4105,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve">identify whether the proposed change to the distribution arrangements is consistent with the fair value requirement in PROD 7.2.14R. </t>
+          <t>before approving the product for marketing or distribution;</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4120,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PROD 7.2.33</t>
+          <t>PROD 7.2.27</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4180,12 +4135,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1A manufacturer must make available to a distributor all appropriate information on the:</t>
+          <t>when the product is being significantly adapted; and</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4150,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PROD 7.2.33</t>
+          <t>PROD 7.2.27</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4210,12 +4165,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>funeral plan product, including to enable the distributor to understand the intended value established by the manufacturer;</t>
+          <t>where the target market has significantly changed.</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4180,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PROD 7.2.33</t>
+          <t>PROD 7.2.28</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4238,14 +4193,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">product approval process; </t>
+          <t>1A manufacturer must not bring a funeral plan product to the market if the results of the product testing show that the product does not provide fair value including where it would not meet the identified needs, objectives and characteristics of the target market.</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4206,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PROD 7.2.33</t>
+          <t>PROD 7.2.29</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4268,14 +4219,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(c) </t>
-        </is>
-      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>identified target market of the funeral plan product, including any type of customer for whom the funeral plan product is unlikely to provide fair value; and</t>
+          <t>1A manufacturer must carefully select distribution arrangements, including specific distribution channels that are appropriate for the target market, taking into account the particular characteristics of the relevant funeral plan product.</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4232,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PROD 7.2.33</t>
+          <t>PROD 7.2.30</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4300,12 +4247,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">(d) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>suggested distribution strategy.</t>
+          <t>1When selecting any distribution arrangements, including any particular distribution channel, a manufacturer must be able to demonstrate clearly that these arrangements:</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4262,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PROD 7.2.33</t>
+          <t>PROD 7.2.30</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4330,12 +4277,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve">The information in (1) must: </t>
+          <t>result in fair value to the customer;</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4292,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PROD 7.2.33</t>
+          <t>PROD 7.2.30</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4360,12 +4307,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>include information on the main features and characteristics of the funeral plan products, their risks and costs, including implicit costs, and any circumstances which might cause a conflict of interest to the detriment of the customer;</t>
+          <t>are consistent with the requirements in FPCOB 6.4 (charging for funeral plan distribution); and</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4322,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PROD 7.2.33</t>
+          <t>PROD 7.2.30</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4390,12 +4337,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>be clear, complete and up to date.</t>
+          <t>prevent or mitigate the risk of customer detriment arising from the distribution of the product, for example by verifying that any proposed distributor has the necessary knowledge, expertise and competence; and</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4352,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PROD 7.2.34</t>
+          <t>PROD 7.2.30</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4420,12 +4367,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(d)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1The information a manufacturer has to make available to any distributor under PROD 7.2.33R(1) must be of an adequate standard to enable distributors to:</t>
+          <t>do not pose a significant risk of a distribution channel failing to meet the requirements in FPCOB.</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4382,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PROD 7.2.34</t>
+          <t>PROD 7.2.30</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4450,12 +4397,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>understand the funeral plan products;</t>
+          <t>A manufacturer must not use a distribution channel unless it is able to demonstrate the requirements in (1) are met.</t>
         </is>
       </c>
     </row>
@@ -4465,12 +4412,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PROD 7.2.34</t>
+          <t>PROD 7.2.31</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4478,14 +4425,11 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">comprehend the identified target market for the funeral plan products; </t>
+          <t>1
+Manufacturers should only select distributors that have the necessary knowledge, expertise and competence to understand the features of a funeral plan product and the identified target market.</t>
         </is>
       </c>
     </row>
@@ -4495,7 +4439,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PROD 7.2.34</t>
+          <t>PROD 7.2.32</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4508,14 +4452,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(c) </t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>identify any customers for whom the funeral plan products are not compatible with their needs, characteristics and objectives; and</t>
+          <t>1Whenever making a change to the distribution arrangements, including adding a further distribution channel, a manufacturer must:</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4465,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PROD 7.2.34</t>
+          <t>PROD 7.2.32</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4540,12 +4480,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve">(d) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>carry out distribution activities for the relevant funeral plans in accordance with the best interests of their customers as prescribed in FPCOB 2.1.2R.</t>
+          <t>obtain all necessary information from the distributor or any other person who will be involved with the distribution arrangement, including that set out in PROD 7.2.35R; and</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4495,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PROD 7.2.34</t>
+          <t>PROD 7.2.32</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4570,12 +4510,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>A manufacturer is not required to disclose specific information objectively considered to be commercially sensitive if the information it does make available would still allow distributors to meet PROD 7.2.34R(1) and 2PROD 7.2.35R(1)(a) and (b).</t>
+          <t>identify whether the proposed change to the distribution arrangements is consistent with the fair value requirement in PROD 7.2.14R.</t>
         </is>
       </c>
     </row>
@@ -4585,7 +4525,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PROD 7.2.35</t>
+          <t>PROD 7.2.33</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4600,12 +4540,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>the type and amount of remuneration of each person in the distribution arrangement where this is part of the funeral plan contract price or otherwise paid directly by the customer, including in relation to additional products;</t>
+          <t>1A manufacturer must make available to a distributor all appropriate information on the:</t>
         </is>
       </c>
     </row>
@@ -4615,7 +4555,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PROD 7.2.35</t>
+          <t>PROD 7.2.33</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4630,12 +4570,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>an explanation of the services provided by each person in the distribution arrangements; and</t>
+          <t>funeral plan product, including to enable the distributor to understand the intended value established by the manufacturer;</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4585,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PROD 7.2.35</t>
+          <t>PROD 7.2.33</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4660,12 +4600,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>confirmation from any firm in the distribution arrangements that any remuneration is consistent with their regulatory obligations, including SYSC 19F.3 (Funeral plan remuneration incentives).</t>
+          <t>product approval process;</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4615,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PROD 7.2.36</t>
+          <t>PROD 7.2.33</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4690,12 +4630,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1Where the manufacturer is considering the effects of the distribution arrangements on value, it should consider whether the additional costs of any individual party in the arrangements that add to the total price paid by the customer deliver any, or a proportional, additional benefit. If not, a manufacturer should consider how it can be satisfied that the arrangements are consistent with its obligations to be able to clearly demonstrate fair value to the customer.</t>
+          <t>identified target market of the funeral plan product, including any type of customer for whom the funeral plan product is unlikely to provide fair value; and</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4645,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PROD 7.2.36</t>
+          <t>PROD 7.2.33</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4720,12 +4660,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(d)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>A benefit that could be consistent with fair value might include where the party’s inclusion in the distribution arrangements increases access to the product for customers in the target market in a way that is proportionate to the additional cost involved.</t>
+          <t>suggested distribution strategy.</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4675,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PROD 7.2.37</t>
+          <t>PROD 7.2.33</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4750,12 +4690,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>whether the funeral plan product remains consistent with:</t>
+          <t>The information in (1) must:</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4705,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PROD 7.2.37</t>
+          <t>PROD 7.2.33</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4780,12 +4720,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve">the identified target market, including their interests, needs, characteristics and objectives; </t>
+          <t>include information on the main features and characteristics of the funeral plan products, their risks and costs, including implicit costs, and any circumstances which might cause a conflict of interest to the detriment of the customer;</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4735,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PROD 7.2.37</t>
+          <t>PROD 7.2.33</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4810,12 +4750,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>the fair value assessment required under PROD 7.2.14R; and</t>
+          <t>be clear, complete and up to date.</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4765,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PROD 7.2.37</t>
+          <t>PROD 7.2.34</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4840,12 +4780,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>whether the intended distribution strategy remains appropriate, including whether those products are being distributed to the target market or are reaching customers outside the target market.</t>
+          <t>1The information a manufacturer has to make available to any distributor under PROD 7.2.33R(1) must be of an adequate standard to enable distributors to:</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4795,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PROD 7.2.38</t>
+          <t>PROD 7.2.34</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4870,12 +4810,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>has the necessary measures to be able to identify if the funeral plan product is not providing fair value; and</t>
+          <t>understand the funeral plan products;</t>
         </is>
       </c>
     </row>
@@ -4885,7 +4825,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PROD 7.2.38</t>
+          <t>PROD 7.2.34</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4900,12 +4840,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>provides that appropriate actions be taken:</t>
+          <t>comprehend the identified target market for the funeral plan products;</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4855,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PROD 7.2.38</t>
+          <t>PROD 7.2.34</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4930,12 +4870,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>for the mitigation and any potential remediation of the harm to existing customers; and</t>
+          <t>identify any customers for whom the funeral plan products are not compatible with their needs, characteristics and objectives; and</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4885,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PROD 7.2.38</t>
+          <t>PROD 7.2.34</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4960,12 +4900,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(d)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>to prevent harm to new customers.</t>
+          <t>carry out distribution activities for the relevant funeral plans in accordance with the best interests of their customers as prescribed in FPCOB 2.1.2R.</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4915,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PROD 7.2.39</t>
+          <t>PROD 7.2.34</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4990,12 +4930,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>every 12 months; or</t>
+          <t>A manufacturer is not required to disclose specific information objectively considered to be commercially sensitive if the information it does make available would still allow distributors to meet PROD 7.2.34R(1) and 2PROD 7.2.35R(1)(a) and (b).</t>
         </is>
       </c>
     </row>
@@ -5005,7 +4945,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PROD 7.2.39</t>
+          <t>PROD 7.2.35</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5018,14 +4958,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>more frequently where the potential risk associated with the funeral plan product makes it appropriate to do so.</t>
+          <t>1A manufacturer must obtain from any person in the distribution arrangements all necessary and relevant information to enable it to identify the remuneration associated with the distribution arrangements to allow it to assess the ongoing value of the product, including at least:</t>
         </is>
       </c>
     </row>
@@ -5035,7 +4971,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PROD 7.2.40</t>
+          <t>PROD 7.2.35</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5050,12 +4986,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>the nature of the customer base, including whether there are significant numbers of vulnerable customers;</t>
+          <t>the type and amount of remuneration of each person in the distribution arrangement where this is part of the funeral plan contract price or otherwise paid directly by the customer, including in relation to additional products;</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PROD 7.2.40</t>
+          <t>PROD 7.2.35</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5080,12 +5016,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>any specific indicators seen in the manufacturer’s assessment of the product’s value to the customer;</t>
+          <t>an explanation of the services provided by each person in the distribution arrangements; and</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5031,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PROD 7.2.40</t>
+          <t>PROD 7.2.35</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5110,12 +5046,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>the nature and type of distribution arrangements being used;</t>
+          <t>confirmation from any firm in the distribution arrangements that any remuneration is consistent with their regulatory obligations, including SYSC 19F.3 (Funeral plan remuneration incentives).</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5061,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PROD 7.2.40</t>
+          <t>PROD 7.2.36</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5140,12 +5076,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>any indicators of customer harm potentially emerging from the performance of the product (for example, through redemptions of funeral plan contracts, missed instalment plan payments by the customer, and/or the number of funeral plan contracts expected to be redeemed but have not been redeemed and complaints data); and</t>
+          <t>1Where the manufacturer is considering the effects of the distribution arrangements on value, it should consider whether the additional costs of any individual party in the arrangements that add to the total price paid by the customer deliver any, or a proportional, additional benefit. If not, a manufacturer should consider how it can be satisfied that the arrangements are consistent with its obligations to be able to clearly demonstrate fair value to the customer.</t>
         </is>
       </c>
     </row>
@@ -5155,12 +5091,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PROD 7.2.40</t>
+          <t>PROD 7.2.36</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5170,12 +5106,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>any relevant external factors, such as changes to the applicable legal rules, technological developments, or changes to the market situation.</t>
+          <t>A benefit that could be consistent with fair value might include where the party’s inclusion in the distribution arrangements increases access to the product for customers in the target market in a way that is proportionate to the additional cost involved.</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5121,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PROD 7.2.41</t>
+          <t>PROD 7.2.37</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5198,14 +5134,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1A manufacturer must identify during the lifetime of a funeral plan product any circumstances related to the funeral plan product that may adversely affect a customer of that product.</t>
+          <t>1A manufacturer must regularly review the funeral plan products it offers or markets taking into account any event that could materially affect the potential risk to the identified target market, the main features or the guarantees of the funeral plan product. In doing so, the manufacturer must assess at least the following:</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5147,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PROD 7.2.41</t>
+          <t>PROD 7.2.37</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5230,12 +5162,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Where a manufacturer identifies an event that may adversely affect a customer of the product, the manufacturer must:</t>
+          <t>whether the funeral plan product remains consistent with:</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5177,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PROD 7.2.41</t>
+          <t>PROD 7.2.37</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5260,12 +5192,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>take appropriate action to mitigate the situation and prevent further occurrences of the detrimental event; and</t>
+          <t>the identified target market, including their interests, needs, characteristics and objectives;</t>
         </is>
       </c>
     </row>
@@ -5275,7 +5207,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PROD 7.2.41</t>
+          <t>PROD 7.2.37</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5290,12 +5222,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>promptly inform concerned distributors and customers about the remedial action taken.</t>
+          <t>the fair value assessment required under PROD 7.2.14R; and</t>
         </is>
       </c>
     </row>
@@ -5305,7 +5237,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PROD 7.2.42</t>
+          <t>PROD 7.2.37</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5320,12 +5252,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1A manufacturer must take appropriate steps to monitor:</t>
+          <t>whether the intended distribution strategy remains appropriate, including whether those products are being distributed to the target market or are reaching customers outside the target market.</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5267,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PROD 7.2.42</t>
+          <t>PROD 7.2.38</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5348,14 +5280,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>that a funeral plan product distributor acts in accordance with the objectives of the manufacturer’s product approval process; and</t>
+          <t>1A manufacturer must ensure that the review process:</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5293,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PROD 7.2.42</t>
+          <t>PROD 7.2.38</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5380,12 +5308,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>any impact which the distribution arrangements are having on the value including whether the distribution channels remain appropriate.</t>
+          <t>has the necessary measures to be able to identify if the funeral plan product is not providing fair value; and</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5323,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PROD 7.2.42</t>
+          <t>PROD 7.2.38</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5410,12 +5338,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve">A manufacturer must verify on a regular basis whether the funeral plans products are distributed on the identified target market. </t>
+          <t>provides that appropriate actions be taken:</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5353,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PROD 7.2.42</t>
+          <t>PROD 7.2.38</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5440,12 +5368,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>The monitoring activities must be reasonable, taking into consideration the characteristics and the legal framework of the respective distribution channels.</t>
+          <t>for the mitigation and any potential remediation of the harm to existing customers; and</t>
         </is>
       </c>
     </row>
@@ -5455,21 +5383,583 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>PROD 7.2.38</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>to prevent harm to new customers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>PROD 7.2.39</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1A manufacturer must undertake the regular review:</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>PROD 7.2.39</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>every 12 months; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>PROD 7.2.39</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>more frequently where the potential risk associated with the funeral plan product makes it appropriate to do so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>PROD 7.2.40</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1When determining the appropriate interval for review of a funeral plan product, a manufacturer must take into account:</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>PROD 7.2.40</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>the nature of the customer base, including whether there are significant numbers of vulnerable customers;</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>PROD 7.2.40</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>any specific indicators seen in the manufacturer’s assessment of the product’s value to the customer;</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>PROD 7.2.40</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>the nature and type of distribution arrangements being used;</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>PROD 7.2.40</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>any indicators of customer harm potentially emerging from the performance of the product (for example, through redemptions of funeral plan contracts, missed instalment plan payments by the customer, and/or the number of funeral plan contracts expected to be redeemed but have not been redeemed and complaints data); and</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>PROD 7.2.40</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>(5)</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>any relevant external factors, such as changes to the applicable legal rules, technological developments, or changes to the market situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>PROD 7.2.41</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1A manufacturer must identify during the lifetime of a funeral plan product any circumstances related to the funeral plan product that may adversely affect a customer of that product.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>PROD 7.2.41</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Where a manufacturer identifies an event that may adversely affect a customer of the product, the manufacturer must:</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>PROD 7.2.41</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>take appropriate action to mitigate the situation and prevent further occurrences of the detrimental event; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>PROD 7.2.41</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>promptly inform concerned distributors and customers about the remedial action taken.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>PROD 7.2.42</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1A manufacturer must take appropriate steps to monitor:</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>PROD 7.2.42</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>that a funeral plan product distributor acts in accordance with the objectives of the manufacturer’s product approval process; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>PROD 7.2.42</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>any impact which the distribution arrangements are having on the value including whether the distribution channels remain appropriate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>PROD 7.2.42</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>A manufacturer must verify on a regular basis whether the funeral plans products are distributed on the identified target market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>PROD 7.2.42</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>The monitoring activities must be reasonable, taking into consideration the characteristics and the legal framework of the respective distribution channels.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
           <t>PROD 7.2.43</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
         <is>
           <t>1
 PROD 7.2
@@ -5477,579 +5967,13 @@
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>PROD 7.2.44</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>ensure that it has sufficient, good quality management information; and</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>PROD 7.2.44</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>use the full range of data and information available to it (whether it holds this information already, the information is publicly available, or it is able to obtain it from another person),</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>PROD 7.2.45</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>1A manufacturer should identify whether there is a risk to its continuing to provide fair value where there is a material change in the relationship between the price to the customer and the actual costs to the manufacturer or another party involved in the ongoing service/distribution of the product.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>PROD 7.2.46</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>the assessment of whether that change would amount to a significant adaptation of the funeral plan product; and</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>PROD 7.2.46</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>where the assessment in (1) is that the change would not be a significant adaptation, the reasons for that decision.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>PROD 7.2.47</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>amending the distribution arrangements, including ceasing to use certain distributors or distribution channels;</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>PROD 7.2.47</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>amending remuneration structures;</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>PROD 7.2.47</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>withdrawing the funeral plan product from continued marketing or distribution; or</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>PROD 7.2.47</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>paying redress as appropriate.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>PROD 7.3.1</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>aim to prevent and mitigate customer detriment;</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>PROD 7.3.1</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>be consistent with the aim of providing fair value to the customer;</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>PROD 7.3.1</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>support a proper management of conflicts of interest; and</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>PROD 7.3.1</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>ensure that the objectives, interests and characteristics of customers are duly taken into account.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>PROD 7.3.2</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1A distributor must ensure the product distribution arrangements contain effective measures and procedures to: </t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>PROD 7.3.2</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>obtain from the manufacturer all appropriate information sufficient, adequate and reliable about the funeral plan products they intend to offer to their customers to ensure that they will be distributed in accordance with the characteristics, objectives and needs of the target market; and</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>PROD 7.3.2</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>fully comprehend those funeral plan products, taking into account the level of complexity and the risks related to the products as well as the nature, scale and complexity of the relevant business of the distributor.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>PROD 7.3.2</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>The information in (1) must be sufficient to understand:</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>PROD 7.3.2</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">the characteristics of each funeral plan product; </t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>PROD 7.3.2</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>the outcome of the value assessment required by PROD 7.2.14R, including:</t>
-        </is>
-      </c>
-    </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PROD 7.3.2</t>
+          <t>PROD 7.2.44</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6062,14 +5986,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(i) </t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>the value that the funeral plan product is intended to provide to the customer; and</t>
+          <t>1A manufacturer must:</t>
         </is>
       </c>
     </row>
@@ -6079,7 +5999,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PROD 7.3.2</t>
+          <t>PROD 7.2.44</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6094,12 +6014,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t xml:space="preserve">(ii) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>the impact that the distribution arrangements (including any remuneration it, or another person in the distribution chain to which it belongs, receives) has on the overall value of the funeral plan product to the customer; and</t>
+          <t>ensure that it has sufficient, good quality management information; and</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6029,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PROD 7.3.2</t>
+          <t>PROD 7.2.44</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6124,12 +6044,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>the identified target market of each funeral plan product, including any identified group of customers for whom the funeral plan product is not expected to provide fair value.</t>
+          <t>use the full range of data and information available to it (whether it holds this information already, the information is publicly available, or it is able to obtain it from another person),</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6059,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PROD 7.3.3</t>
+          <t>PROD 7.2.44</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6152,14 +6072,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>the benefits the product is intended to provide to the customer;</t>
+          <t>to enable it to properly understand and monitor the funeral plan product.</t>
         </is>
       </c>
     </row>
@@ -6169,12 +6085,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PROD 7.3.3</t>
+          <t>PROD 7.2.45</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6182,14 +6098,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>the characteristics, objectives, interests and needs of the target market;</t>
+          <t>1A manufacturer should identify whether there is a risk to its continuing to provide fair value where there is a material change in the relationship between the price to the customer and the actual costs to the manufacturer or another party involved in the ongoing service/distribution of the product.</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6111,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PROD 7.3.3</t>
+          <t>PROD 7.2.46</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6212,14 +6124,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>the interaction between the price paid by the customer and the extent and quality of any services the distributor (or any person connected to it) provides; and</t>
+          <t>1For the purposes of showing that the requirement in PROD 7.2.1R is met, where a manufacturer makes a change to a funeral plan product, it must make and retain a record of:</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6137,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PROD 7.3.3</t>
+          <t>PROD 7.2.46</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6244,12 +6152,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>whether any remuneration it receives in relation to the funeral plan product would result in the product ceasing to provide fair value to the customer.</t>
+          <t>the assessment of whether that change would amount to a significant adaptation of the funeral plan product; and</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6167,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PROD 7.3.4</t>
+          <t>PROD 7.2.46</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6272,10 +6180,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1The following evidential provision provides examples of what the FCA considers will breach PROD 7.3.1R.</t>
+          <t>where the assessment in (1) is that the change would not be a significant adaptation, the reasons for that decision.</t>
         </is>
       </c>
     </row>
@@ -6285,12 +6197,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PROD 7.3.5</t>
+          <t>PROD 7.2.47</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6298,14 +6210,11 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1A firm’s distribution arrangements, including any distribution strategy it sets up, should not result in:</t>
+          <t>1
+Manufacturers considering that the distribution of their funeral plan products is not in accordance with the objectives of their product approval process must take appropriate remedial action including but not limited to:</t>
         </is>
       </c>
     </row>
@@ -6315,12 +6224,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PROD 7.3.5</t>
+          <t>PROD 7.2.47</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6330,12 +6239,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>the firm receiving a level of remuneration which does not bear a reasonable relationship to the firm’s actual costs, or their contribution, level of involvement or the benefit added by them, to the arrangements for the distribution of the product, including where the firm provides little or no benefit beyond that which the customer would receive if they obtained the funeral plan product through another distribution channel;</t>
+          <t>amending the distribution arrangements, including ceasing to use certain distributors or distribution channels;</t>
         </is>
       </c>
     </row>
@@ -6345,12 +6254,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PROD 7.3.5</t>
+          <t>PROD 7.2.47</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6360,12 +6269,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>the firm having remuneration arrangements which give an incentive to propose or recommend a funeral plan product which either does not meet the customer’s needs (or not as well as another product would) or is not in accordance with the customer’s  best interests rule; and</t>
+          <t>amending remuneration structures;</t>
         </is>
       </c>
     </row>
@@ -6375,12 +6284,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PROD 7.3.5</t>
+          <t>PROD 7.2.47</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6390,12 +6299,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>the level of any remuneration (for which the firm is responsible for setting) not being reasonably reflective of the costs actually incurred.</t>
+          <t>withdrawing the funeral plan product from continued marketing or distribution; or</t>
         </is>
       </c>
     </row>
@@ -6405,12 +6314,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PROD 7.3.5</t>
+          <t>PROD 7.2.47</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6420,12 +6329,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Contravention of any of (1) may be relied upon as tending to establish contravention of PROD 7.3.1R.</t>
+          <t>paying redress as appropriate.</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6344,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PROD 7.3.6</t>
+          <t>PROD 7.3.1</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6448,14 +6357,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>information on the distributor’s remuneration in connection with the distribution of the funeral plan product;</t>
+          <t>1A distributor must have in place product distribution arrangements containing appropriate measures and procedures to:</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6370,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PROD 7.3.6</t>
+          <t>PROD 7.3.1</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6480,12 +6385,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>information on any additional product or service that the distributor provides to the customer, which may affect the manufacturer’s intended value of the product;</t>
+          <t>aim to prevent and mitigate customer detriment;</t>
         </is>
       </c>
     </row>
@@ -6495,7 +6400,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PROD 7.3.6</t>
+          <t>PROD 7.3.1</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6510,12 +6415,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>relevant sales information, including, where appropriate, information on the regular reviews of the product distribution arrangements; and</t>
+          <t>be consistent with the aim of providing fair value to the customer;</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6430,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PROD 7.3.6</t>
+          <t>PROD 7.3.1</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6540,12 +6445,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>confirmation that the distribution arrangements are consistent with the obligations of the firm under the FCA Handbook, including in particular in SYSC 10.1 (Conflicts of interest) and SYSC 19F.3 (Funeral plan remuneration incentives).</t>
+          <t>support a proper management of conflicts of interest; and</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6460,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PROD 7.3.7</t>
+          <t>PROD 7.3.1</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6568,10 +6473,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1A distributor must set out the product distribution arrangements in a written document and make it available to their relevant staff.</t>
+          <t>ensure that the objectives, interests and characteristics of customers are duly taken into account.</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6490,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PROD 7.3.8</t>
+          <t>PROD 7.3.2</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6596,12 +6505,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>duly documented;</t>
+          <t>1A distributor must ensure the product distribution arrangements contain effective measures and procedures to:</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6520,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PROD 7.3.8</t>
+          <t>PROD 7.3.2</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6626,12 +6535,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve">kept for audit purposes; and </t>
+          <t>obtain from the manufacturer all appropriate information sufficient, adequate and reliable about the funeral plan products they intend to offer to their customers to ensure that they will be distributed in accordance with the characteristics, objectives and needs of the target market; and</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6550,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PROD 7.3.8</t>
+          <t>PROD 7.3.2</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6656,12 +6565,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>made available to the FCA upon request.</t>
+          <t>fully comprehend those funeral plan products, taking into account the level of complexity and the risks related to the products as well as the nature, scale and complexity of the relevant business of the distributor.</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6580,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PROD 7.3.9</t>
+          <t>PROD 7.3.2</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6686,12 +6595,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>endorse and be ultimately responsible for establishing, implementing and reviewing the product distribution arrangements; and</t>
+          <t>The information in (1) must be sufficient to understand:</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6610,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PROD 7.3.9</t>
+          <t>PROD 7.3.2</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6716,12 +6625,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>verify internal compliance with those arrangements on an ongoing basis.</t>
+          <t>the characteristics of each funeral plan product;</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6640,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PROD 7.3.10</t>
+          <t>PROD 7.3.2</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6746,12 +6655,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>the distribution arrangements set up by the manufacturer; and</t>
+          <t>the outcome of the value assessment required by PROD 7.2.14R, including:</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6670,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PROD 7.3.10</t>
+          <t>PROD 7.3.2</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6776,12 +6685,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(i)</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>the target market identified in PROD 7.2 (Manufacture of funeral plans), including any customers to whom the product should not be distributed.</t>
+          <t>the value that the funeral plan product is intended to provide to the customer; and</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6700,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PROD 7.3.11</t>
+          <t>PROD 7.3.2</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6806,12 +6715,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(ii)</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1A distributor must regularly review, at least every 12 months, its product distribution arrangements to ensure that those arrangements are still valid and up to date.</t>
+          <t>the impact that the distribution arrangements (including any remuneration it, or another person in the distribution chain to which it belongs, receives) has on the overall value of the funeral plan product to the customer; and</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6730,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>PROD 7.3.11</t>
+          <t>PROD 7.3.2</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6836,12 +6745,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>When determining the appropriate intervals for the regular review of their product distribution arrangements, a distributor must take into account the size, scale and complexity of the funeral plan product involved.</t>
+          <t>the identified target market of each funeral plan product, including any identified group of customers for whom the funeral plan product is not expected to provide fair value.</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6760,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PROD 7.3.12</t>
+          <t>PROD 7.3.3</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6867,7 +6776,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1When reviewing the product distribution arrangements, a distributor must verify that the funeral plan products are distributed to the identified target market.</t>
+          <t>1For the purposes of PROD 7.3.2R, a distributor must consider at least the following:</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6786,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PROD 7.3.13</t>
+          <t>PROD 7.3.3</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6890,10 +6799,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>1A distributor must amend the product distribution arrangements, where appropriate, in view of the outcome of the review of the product distribution arrangements.</t>
+          <t>the benefits the product is intended to provide to the customer;</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6816,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PROD 7.3.14</t>
+          <t>PROD 7.3.3</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6918,12 +6831,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve">that a funeral plan product is not in line with the interests, objectives and characteristics of its identified target market; or </t>
+          <t>the characteristics, objectives, interests and needs of the target market;</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6846,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PROD 7.3.14</t>
+          <t>PROD 7.3.3</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6948,12 +6861,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>of other product-related circumstances that may adversely affect the customer,</t>
+          <t>the interaction between the price paid by the customer and the extent and quality of any services the distributor (or any person connected to it) provides; and</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6876,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PROD 7.3.15</t>
+          <t>PROD 7.3.3</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6978,12 +6891,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>1A distributor must take appropriate remedial and mitigating action, including to amend its product distribution arrangements, where it identifies:</t>
+          <t>whether any remuneration it receives in relation to the funeral plan product would result in the product ceasing to provide fair value to the customer.</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6906,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PROD 7.3.15</t>
+          <t>PROD 7.3.4</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7006,14 +6919,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>a product is not providing fair value for customers;</t>
+          <t>1The following evidential provision provides examples of what the FCA considers will breach PROD 7.3.1R.</t>
         </is>
       </c>
     </row>
@@ -7023,12 +6932,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PROD 7.3.15</t>
+          <t>PROD 7.3.5</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7038,12 +6947,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>any aspects of a product that may mean it does not offer fair value; or</t>
+          <t>1A firm’s distribution arrangements, including any distribution strategy it sets up, should not result in:</t>
         </is>
       </c>
     </row>
@@ -7053,12 +6962,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PROD 7.3.15</t>
+          <t>PROD 7.3.5</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7068,12 +6977,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>the distribution arrangements, including remuneration structures, may mean the customer is not being provided with fair value.</t>
+          <t>the firm receiving a level of remuneration which does not bear a reasonable relationship to the firm’s actual costs, or their contribution, level of involvement or the benefit added by them, to the arrangements for the distribution of the product, including where the firm provides little or no benefit beyond that which the customer would receive if they obtained the funeral plan product through another distribution channel;</t>
         </is>
       </c>
     </row>
@@ -7083,12 +6992,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PROD 7.3.15</t>
+          <t>PROD 7.3.5</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7098,12 +7007,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>The actions which the distributor takes for (1) must:</t>
+          <t>the firm having remuneration arrangements which give an incentive to propose or recommend a funeral plan product which either does not meet the customer’s needs (or not as well as another product would) or is not in accordance with the customer’s  best interests rule; and</t>
         </is>
       </c>
     </row>
@@ -7113,12 +7022,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PROD 7.3.15</t>
+          <t>PROD 7.3.5</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7128,12 +7037,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>aim to mitigate the situation and prevent further occurrences of any possible harm to customers, including, where appropriate, amending the distribution strategy for that product; and</t>
+          <t>the level of any remuneration (for which the firm is responsible for setting) not being reasonably reflective of the costs actually incurred.</t>
         </is>
       </c>
     </row>
@@ -7143,12 +7052,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PROD 7.3.15</t>
+          <t>PROD 7.3.5</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7158,12 +7067,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve">include informing any relevant manufacturers promptly about any concerns they have and any action the distributor is taking.  </t>
+          <t>Contravention of any of (1) may be relied upon as tending to establish contravention of PROD 7.3.1R.</t>
         </is>
       </c>
     </row>
@@ -7173,12 +7082,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PROD 7.3.16</t>
+          <t>PROD 7.3.6</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7186,14 +7095,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>amending its remuneration structures;</t>
+          <t>1A distributor must, upon request, provide manufacturers with:</t>
         </is>
       </c>
     </row>
@@ -7203,12 +7108,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PROD 7.3.16</t>
+          <t>PROD 7.3.6</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7218,12 +7123,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>amending the distribution arrangements;</t>
+          <t>information on the distributor’s remuneration in connection with the distribution of the funeral plan product;</t>
         </is>
       </c>
     </row>
@@ -7233,12 +7138,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PROD 7.3.16</t>
+          <t>PROD 7.3.6</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7248,12 +7153,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>improving the quality of, or ceasing, any service or benefits it provides;</t>
+          <t>information on any additional product or service that the distributor provides to the customer, which may affect the manufacturer’s intended value of the product;</t>
         </is>
       </c>
     </row>
@@ -7263,12 +7168,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PROD 7.3.16</t>
+          <t>PROD 7.3.6</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7278,12 +7183,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>where the failure to provide fair value is due to the costs or quality of additional products, renegotiating the terms of the current arrangements relating to the additional products, or selecting alternative providers or distributors of them, in order to provide for a fair outcome;</t>
+          <t>relevant sales information, including, where appropriate, information on the regular reviews of the product distribution arrangements; and</t>
         </is>
       </c>
     </row>
@@ -7293,12 +7198,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PROD 7.3.16</t>
+          <t>PROD 7.3.6</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7308,12 +7213,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>ceasing to distribute certain products, or ceasing to use certain distribution channels;</t>
+          <t>confirmation that the distribution arrangements are consistent with the obligations of the firm under the FCA Handbook, including in particular in SYSC 10.1 (Conflicts of interest) and SYSC 19F.3 (Funeral plan remuneration incentives).</t>
         </is>
       </c>
     </row>
@@ -7323,12 +7228,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PROD 7.3.16</t>
+          <t>PROD 7.3.7</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7336,14 +7241,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(6) </t>
-        </is>
-      </c>
+      <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>contacting existing customers to inform them of the issues and of the measures being taken to rectify them; and</t>
+          <t>1A distributor must set out the product distribution arrangements in a written document and make it available to their relevant staff.</t>
         </is>
       </c>
     </row>
@@ -7353,12 +7254,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PROD 7.3.16</t>
+          <t>PROD 7.3.8</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7366,14 +7267,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(7) </t>
-        </is>
-      </c>
+      <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>providing redress to customers.</t>
+          <t>1A distributor must ensure that all relevant actions taken by it or any other party in relation to their product distribution arrangements are:</t>
         </is>
       </c>
     </row>
@@ -7383,7 +7280,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PROD 7.4.1</t>
+          <t>PROD 7.3.8</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7396,10 +7293,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1This section applies to a funeral plan provider in relation to a subsisting funeral plan.</t>
+          <t>duly documented;</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7310,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PROD 7.4.2</t>
+          <t>PROD 7.3.8</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7422,10 +7323,14 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>1A funeral plan provider must ensure that, in relation to its subsisting funeral plans, there are adequate product governance arrangements in place, containing appropriate measures and procedures, to ensure a subsisting funeral plan is carried out in way that complies with the firm’s regulatory obligations under the FCA Handbook.</t>
+          <t>kept for audit purposes; and</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7340,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PROD 7.4.3</t>
+          <t>PROD 7.3.8</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7450,12 +7355,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>regularly review its subsisting funeral plans, taking into account any event that could cause material harm to the customers; and</t>
+          <t>made available to the FCA upon request.</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7370,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PROD 7.4.3</t>
+          <t>PROD 7.3.9</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7478,14 +7383,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>ensure the review process in (1), provides that appropriate actions be taken for the mitigation and any potential remediation of the harm to existing customers.</t>
+          <t>1A distributor’s governing body must:</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7396,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PROD 7.4.4</t>
+          <t>PROD 7.3.9</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7510,12 +7411,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1A firm must undertake the regular review at least every 12 months.</t>
+          <t>endorse and be ultimately responsible for establishing, implementing and reviewing the product distribution arrangements; and</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7426,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>PROD 7.4.4</t>
+          <t>PROD 7.3.9</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7540,12 +7441,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>When determining the appropriate interval for review of a funeral plan product, a firm must take into account:</t>
+          <t>verify internal compliance with those arrangements on an ongoing basis.</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7456,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>PROD 7.4.4</t>
+          <t>PROD 7.3.10</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7568,14 +7469,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>the nature of the customer base, including whether there are significant numbers of vulnerable customers;</t>
+          <t>1A distributor must ensure that any specific distribution strategy that it sets up or applies is consistent with:</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7482,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PROD 7.4.4</t>
+          <t>PROD 7.3.10</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7600,12 +7497,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>any indicators of customer harm potentially emerging from the performance of the product; and</t>
+          <t>the distribution arrangements set up by the manufacturer; and</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7512,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>PROD 7.4.4</t>
+          <t>PROD 7.3.10</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7630,12 +7527,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>any relevant external factors such as changes to the applicable legal rules, technological developments, or changes to the market situation.</t>
+          <t>the target market identified in PROD 7.2 (Manufacture of funeral plans), including any customers to whom the product should not be distributed.</t>
         </is>
       </c>
     </row>
@@ -7645,7 +7542,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>PROD 7.4.5</t>
+          <t>PROD 7.3.11</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7660,12 +7557,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>A firm must identify during the lifetime of a subsisting funeral plan any circumstances related to it that may adversely affect a customer.</t>
+          <t>1A distributor must regularly review, at least every 12 months, its product distribution arrangements to ensure that those arrangements are still valid and up to date.</t>
         </is>
       </c>
     </row>
@@ -7675,7 +7572,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>PROD 7.4.5</t>
+          <t>PROD 7.3.11</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7690,12 +7587,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Where a firm identifies an event that may adversely affect a customer holding the funeral plan contract, the firm must:</t>
+          <t>When determining the appropriate intervals for the regular review of their product distribution arrangements, a distributor must take into account the size, scale and complexity of the funeral plan product involved.</t>
         </is>
       </c>
     </row>
@@ -7705,7 +7602,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PROD 7.4.5</t>
+          <t>PROD 7.3.12</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7718,14 +7615,10 @@
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>take appropriate action to mitigate the situation and prevent further occurrences of the detrimental event; and</t>
+          <t>1When reviewing the product distribution arrangements, a distributor must verify that the funeral plan products are distributed to the identified target market.</t>
         </is>
       </c>
     </row>
@@ -7735,25 +7628,1047 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
+          <t>PROD 7.3.13</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>1A distributor must amend the product distribution arrangements, where appropriate, in view of the outcome of the review of the product distribution arrangements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>PROD 7.3.14</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>1When a distributor becomes aware:</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>PROD 7.3.14</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>that a funeral plan product is not in line with the interests, objectives and characteristics of its identified target market; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>PROD 7.3.14</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>of other product-related circumstances that may adversely affect the customer,</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>PROD 7.3.14</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>it must promptly:</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>PROD 7.3.14</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>inform the manufacturer; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>PROD 7.3.14</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>where appropriate, amend the distribution arrangements for that funeral plan product.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>PROD 7.3.15</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>1A distributor must take appropriate remedial and mitigating action, including to amend its product distribution arrangements, where it identifies:</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>PROD 7.3.15</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>a product is not providing fair value for customers;</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>PROD 7.3.15</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>any aspects of a product that may mean it does not offer fair value; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>PROD 7.3.15</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>(c)</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>the distribution arrangements, including remuneration structures, may mean the customer is not being provided with fair value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>PROD 7.3.15</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>The actions which the distributor takes for (1) must:</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>PROD 7.3.15</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>aim to mitigate the situation and prevent further occurrences of any possible harm to customers, including, where appropriate, amending the distribution strategy for that product; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>PROD 7.3.15</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>include informing any relevant manufacturers promptly about any concerns they have and any action the distributor is taking.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>PROD 7.3.16</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>1For the purposes of PROD 7.3.15R, the steps a distributor may need to take include (but are not limited to):</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>PROD 7.3.16</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>amending its remuneration structures;</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>PROD 7.3.16</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>amending the distribution arrangements;</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>PROD 7.3.16</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>improving the quality of, or ceasing, any service or benefits it provides;</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>PROD 7.3.16</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>where the failure to provide fair value is due to the costs or quality of additional products, renegotiating the terms of the current arrangements relating to the additional products, or selecting alternative providers or distributors of them, in order to provide for a fair outcome;</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>PROD 7.3.16</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>(5)</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>ceasing to distribute certain products, or ceasing to use certain distribution channels;</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>PROD 7.3.16</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>(6)</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>contacting existing customers to inform them of the issues and of the measures being taken to rectify them; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>PROD 7.3.16</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>(7)</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>providing redress to customers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>PROD 7.4.1</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>1This section applies to a funeral plan provider in relation to a subsisting funeral plan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>PROD 7.4.2</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>1A funeral plan provider must ensure that, in relation to its subsisting funeral plans, there are adequate product governance arrangements in place, containing appropriate measures and procedures, to ensure a subsisting funeral plan is carried out in way that complies with the firm’s regulatory obligations under the FCA Handbook.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>PROD 7.4.3</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>1A firm must:</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>PROD 7.4.3</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>regularly review its subsisting funeral plans, taking into account any event that could cause material harm to the customers; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>PROD 7.4.3</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>ensure the review process in (1), provides that appropriate actions be taken for the mitigation and any potential remediation of the harm to existing customers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>PROD 7.4.4</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>1A firm must undertake the regular review at least every 12 months.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>PROD 7.4.4</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>When determining the appropriate interval for review of a funeral plan product, a firm must take into account:</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>PROD 7.4.4</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>the nature of the customer base, including whether there are significant numbers of vulnerable customers;</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>PROD 7.4.4</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>any indicators of customer harm potentially emerging from the performance of the product; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>PROD 7.4.4</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>(c)</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>any relevant external factors such as changes to the applicable legal rules, technological developments, or changes to the market situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
           <t>PROD 7.4.5</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>29/07/2022</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>A firm must identify during the lifetime of a subsisting funeral plan any circumstances related to it that may adversely affect a customer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>PROD 7.4.5</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Where a firm identifies an event that may adversely affect a customer holding the funeral plan contract, the firm must:</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>PROD 7.4.5</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>take appropriate action to mitigate the situation and prevent further occurrences of the detrimental event; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>PROD 7.4.5</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
         <is>
           <t>promptly inform concerned customers about the remedial action taken.</t>
         </is>
